--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668666.74</v>
+        <v>1762015.21</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238380.96</v>
+        <v>220251.9</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24151.94</v>
+        <v>27023.32</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>368703.23</v>
+        <v>370281.76</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>537935.96</v>
+        <v>533986.58</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255871.48</v>
+        <v>257956.89</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302749.81</v>
+        <v>300021.27</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40083.01</v>
+        <v>11216.3</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139171.31</v>
+        <v>139885.34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>121643.75</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,105 +439,140 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1762015.21</v>
+        <v>27023.32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27202.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220251.9</v>
+        <v>370281.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>370309.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27023.32</v>
+        <v>533986.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>538018.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370281.76</v>
+        <v>121643.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>124900.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533986.58</v>
+        <v>257956.89</v>
+      </c>
+      <c r="C6" t="n">
+        <v>256290.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257956.89</v>
+        <v>300021.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>301155.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>300021.27</v>
+        <v>11216.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9540.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11216.3</v>
+        <v>139885.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>138994.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139885.34</v>
+        <v>220251.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>220801.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121643.75</v>
+        <v>1762015.21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1766411.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,115 +439,153 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2034666.84</v>
+        <v>27202.22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26329.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226074.09</v>
+        <v>370309.86</v>
+      </c>
+      <c r="C3" t="n">
+        <v>368466.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27202.22</v>
+        <v>538018.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>534458.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370309.86</v>
+        <v>268255.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>269384.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538018.11</v>
+        <v>124900.04</v>
+      </c>
+      <c r="C6" t="n">
+        <v>118364.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268255.2</v>
+        <v>256290.21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>253729.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124900.04</v>
+        <v>301155.97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>303089.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256290.21</v>
+        <v>9540.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301155.97</v>
+        <v>138994.33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>139293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9540.9</v>
+        <v>226074.09</v>
+      </c>
+      <c r="C11" t="n">
+        <v>223679.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138994.33</v>
+        <v>2034666.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2013116.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -519,9 +519,7 @@
       <c r="B7" t="n">
         <v>256290.21</v>
       </c>
-      <c r="C7" t="n">
-        <v>253729.65</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -572,7 +570,7 @@
         <v>226074.09</v>
       </c>
       <c r="C11" t="n">
-        <v>223679.56</v>
+        <v>219923.3</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +583,7 @@
         <v>2034666.84</v>
       </c>
       <c r="C12" t="n">
-        <v>2013116.03</v>
+        <v>1759386.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,578 +436,283 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27202.22</v>
+        <v>370968.54</v>
       </c>
       <c r="C2" t="n">
-        <v>26329.59</v>
+        <v>368117.1</v>
       </c>
       <c r="D2" t="n">
-        <v>28279.66</v>
+        <v>371490.69</v>
       </c>
       <c r="E2" t="n">
-        <v>29223.95</v>
+        <v>369482.07</v>
       </c>
       <c r="F2" t="n">
-        <v>26168.58</v>
+        <v>369214.36</v>
       </c>
       <c r="G2" t="n">
-        <v>24252.49</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23718.8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24325.79</v>
-      </c>
-      <c r="J2" t="n">
-        <v>23201.26</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23786.43</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24930.28</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>374524.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370309.86</v>
+        <v>473036.16</v>
       </c>
       <c r="C3" t="n">
-        <v>368466.44</v>
+        <v>472706.8</v>
       </c>
       <c r="D3" t="n">
-        <v>369500.23</v>
+        <v>472780.74</v>
       </c>
       <c r="E3" t="n">
-        <v>368557.64</v>
+        <v>401174.29</v>
       </c>
       <c r="F3" t="n">
-        <v>370370.7</v>
+        <v>403062.04</v>
       </c>
       <c r="G3" t="n">
-        <v>369548.28</v>
-      </c>
-      <c r="H3" t="n">
-        <v>369407.06</v>
-      </c>
-      <c r="I3" t="n">
-        <v>369091.94</v>
-      </c>
-      <c r="J3" t="n">
-        <v>368922.48</v>
-      </c>
-      <c r="K3" t="n">
-        <v>369565</v>
-      </c>
-      <c r="L3" t="n">
-        <v>368506.94</v>
-      </c>
-      <c r="M3" t="n">
-        <v>370968.54</v>
+        <v>405939.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538018.11</v>
+        <v>298043.72</v>
       </c>
       <c r="C4" t="n">
-        <v>534458.55</v>
+        <v>297207.08</v>
       </c>
       <c r="D4" t="n">
-        <v>538751.42</v>
+        <v>297671.83</v>
       </c>
       <c r="E4" t="n">
-        <v>535852.67</v>
+        <v>296975.27</v>
       </c>
       <c r="F4" t="n">
-        <v>535984.59</v>
+        <v>299060.16</v>
       </c>
       <c r="G4" t="n">
-        <v>539290.85</v>
-      </c>
-      <c r="H4" t="n">
-        <v>536324.6800000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>471855.81</v>
-      </c>
-      <c r="J4" t="n">
-        <v>471544.41</v>
-      </c>
-      <c r="K4" t="n">
-        <v>475204.43</v>
-      </c>
-      <c r="L4" t="n">
-        <v>473025.88</v>
-      </c>
-      <c r="M4" t="n">
-        <v>473036.16</v>
+        <v>301823.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268255.2</v>
+        <v>131301.8</v>
       </c>
       <c r="C5" t="n">
-        <v>269384.72</v>
+        <v>129542.25</v>
       </c>
       <c r="D5" t="n">
-        <v>298438.25</v>
+        <v>127941.93</v>
       </c>
       <c r="E5" t="n">
-        <v>298496.24</v>
+        <v>128578.58</v>
       </c>
       <c r="F5" t="n">
-        <v>297343.22</v>
+        <v>130652.66</v>
       </c>
       <c r="G5" t="n">
-        <v>298359.15</v>
-      </c>
-      <c r="H5" t="n">
-        <v>297192.72</v>
-      </c>
-      <c r="I5" t="n">
-        <v>297560.28</v>
-      </c>
-      <c r="J5" t="n">
-        <v>297287.13</v>
-      </c>
-      <c r="K5" t="n">
-        <v>297970.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>297396.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>298043.72</v>
+        <v>131035.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124900.04</v>
+        <v>254477.82</v>
       </c>
       <c r="C6" t="n">
-        <v>118364.76</v>
+        <v>258357.17</v>
       </c>
       <c r="D6" t="n">
-        <v>123710.84</v>
+        <v>258580.14</v>
       </c>
       <c r="E6" t="n">
-        <v>126553.3</v>
+        <v>257204.46</v>
       </c>
       <c r="F6" t="n">
-        <v>121388.06</v>
+        <v>253463.78</v>
       </c>
       <c r="G6" t="n">
-        <v>130653.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>130560.68</v>
-      </c>
-      <c r="I6" t="n">
-        <v>133565.41</v>
-      </c>
-      <c r="J6" t="n">
-        <v>126407.18</v>
-      </c>
-      <c r="K6" t="n">
-        <v>133876.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>127527.26</v>
-      </c>
-      <c r="M6" t="n">
-        <v>131301.8</v>
+        <v>263796.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>41569.59</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4399.22</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>Fima PB Acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>302733.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>302285.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>302281.58</v>
+      </c>
+      <c r="E7" t="n">
+        <v>299961.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>300582.43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>295505.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>35990.42</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4156.95</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256290.21</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>109979.57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>110457.88</v>
+      </c>
       <c r="D9" t="n">
-        <v>256763.52</v>
+        <v>111253.09</v>
       </c>
       <c r="E9" t="n">
-        <v>251890.73</v>
+        <v>108696.12</v>
       </c>
       <c r="F9" t="n">
-        <v>253715.8</v>
+        <v>107410.76</v>
       </c>
       <c r="G9" t="n">
-        <v>257714.89</v>
-      </c>
-      <c r="H9" t="n">
-        <v>252578.27</v>
-      </c>
-      <c r="I9" t="n">
-        <v>253109.05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>252769.54</v>
-      </c>
-      <c r="K9" t="n">
-        <v>256755.68</v>
-      </c>
-      <c r="L9" t="n">
-        <v>255418.93</v>
-      </c>
-      <c r="M9" t="n">
-        <v>254477.82</v>
+        <v>109599.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301155.97</v>
+        <v>242567.64</v>
       </c>
       <c r="C10" t="n">
-        <v>303089.32</v>
+        <v>242334.18</v>
       </c>
       <c r="D10" t="n">
-        <v>303045.01</v>
+        <v>242750</v>
       </c>
       <c r="E10" t="n">
-        <v>302876.54</v>
+        <v>232758.99</v>
       </c>
       <c r="F10" t="n">
-        <v>303770.63</v>
+        <v>232930.77</v>
       </c>
       <c r="G10" t="n">
-        <v>302644.73</v>
-      </c>
-      <c r="H10" t="n">
-        <v>300271.9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>303019.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>301271.93</v>
-      </c>
-      <c r="K10" t="n">
-        <v>299881.72</v>
-      </c>
-      <c r="L10" t="n">
-        <v>303971.8</v>
-      </c>
-      <c r="M10" t="n">
-        <v>302733.55</v>
+        <v>235278.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9540.9</v>
+        <v>1940541.16</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1938673.43</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1942000</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1862071.95</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1863446.19</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>HF Acciones Lideres</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>138994.33</v>
-      </c>
-      <c r="C12" t="n">
-        <v>139293</v>
-      </c>
-      <c r="D12" t="n">
-        <v>109499.09</v>
-      </c>
-      <c r="E12" t="n">
-        <v>109205.58</v>
-      </c>
-      <c r="F12" t="n">
-        <v>107734.36</v>
-      </c>
-      <c r="G12" t="n">
-        <v>108851.53</v>
-      </c>
-      <c r="H12" t="n">
-        <v>109957.97</v>
-      </c>
-      <c r="I12" t="n">
-        <v>110470.04</v>
-      </c>
-      <c r="J12" t="n">
-        <v>110292.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>109125.11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>110053.26</v>
-      </c>
-      <c r="M12" t="n">
-        <v>109979.57</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>226074.09</v>
-      </c>
-      <c r="C13" t="n">
-        <v>219923.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>225332</v>
-      </c>
-      <c r="E13" t="n">
-        <v>224739.63</v>
-      </c>
-      <c r="F13" t="n">
-        <v>224052.88</v>
-      </c>
-      <c r="G13" t="n">
-        <v>225701.74</v>
-      </c>
-      <c r="H13" t="n">
-        <v>224445.79</v>
-      </c>
-      <c r="I13" t="n">
-        <v>218110.91</v>
-      </c>
-      <c r="J13" t="n">
-        <v>216855.14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>185793.28</v>
-      </c>
-      <c r="L13" t="n">
-        <v>179035.19</v>
-      </c>
-      <c r="M13" t="n">
-        <v>242567.64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2034666.84</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1759386.38</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2027988.02</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2022656.65</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2016475.94</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2031315.62</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2020012.08</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1962998.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1951696.28</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2043726.03</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1969387.12</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1940541.16</v>
+        <v>1882224.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,283 +436,578 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370968.54</v>
+        <v>27202.22</v>
       </c>
       <c r="C2" t="n">
-        <v>368117.1</v>
+        <v>26329.59</v>
       </c>
       <c r="D2" t="n">
-        <v>371490.69</v>
+        <v>28279.66</v>
       </c>
       <c r="E2" t="n">
-        <v>369482.07</v>
+        <v>29223.95</v>
       </c>
       <c r="F2" t="n">
-        <v>369214.36</v>
+        <v>26168.58</v>
       </c>
       <c r="G2" t="n">
-        <v>374524.85</v>
-      </c>
+        <v>24252.49</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23718.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24325.79</v>
+      </c>
+      <c r="J2" t="n">
+        <v>23201.26</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23786.43</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24930.28</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473036.16</v>
+        <v>370309.86</v>
       </c>
       <c r="C3" t="n">
-        <v>472706.8</v>
+        <v>368466.44</v>
       </c>
       <c r="D3" t="n">
-        <v>472780.74</v>
+        <v>369500.23</v>
       </c>
       <c r="E3" t="n">
-        <v>401174.29</v>
+        <v>368557.64</v>
       </c>
       <c r="F3" t="n">
-        <v>403062.04</v>
+        <v>370370.7</v>
       </c>
       <c r="G3" t="n">
-        <v>405939.57</v>
+        <v>369548.28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>369407.06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>369091.94</v>
+      </c>
+      <c r="J3" t="n">
+        <v>368922.48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>369565</v>
+      </c>
+      <c r="L3" t="n">
+        <v>368506.94</v>
+      </c>
+      <c r="M3" t="n">
+        <v>370968.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298043.72</v>
+        <v>538018.11</v>
       </c>
       <c r="C4" t="n">
-        <v>297207.08</v>
+        <v>534458.55</v>
       </c>
       <c r="D4" t="n">
-        <v>297671.83</v>
+        <v>538751.42</v>
       </c>
       <c r="E4" t="n">
-        <v>296975.27</v>
+        <v>535852.67</v>
       </c>
       <c r="F4" t="n">
-        <v>299060.16</v>
+        <v>535984.59</v>
       </c>
       <c r="G4" t="n">
-        <v>301823.8</v>
+        <v>539290.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>536324.6800000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>471855.81</v>
+      </c>
+      <c r="J4" t="n">
+        <v>471544.41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>475204.43</v>
+      </c>
+      <c r="L4" t="n">
+        <v>473025.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>473036.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131301.8</v>
+        <v>268255.2</v>
       </c>
       <c r="C5" t="n">
-        <v>129542.25</v>
+        <v>269384.72</v>
       </c>
       <c r="D5" t="n">
-        <v>127941.93</v>
+        <v>298438.25</v>
       </c>
       <c r="E5" t="n">
-        <v>128578.58</v>
+        <v>298496.24</v>
       </c>
       <c r="F5" t="n">
-        <v>130652.66</v>
+        <v>297343.22</v>
       </c>
       <c r="G5" t="n">
-        <v>131035.23</v>
+        <v>298359.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>297192.72</v>
+      </c>
+      <c r="I5" t="n">
+        <v>297560.28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>297287.13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>297970.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>297396.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>298043.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254477.82</v>
+        <v>124900.04</v>
       </c>
       <c r="C6" t="n">
-        <v>258357.17</v>
+        <v>118364.76</v>
       </c>
       <c r="D6" t="n">
-        <v>258580.14</v>
+        <v>123710.84</v>
       </c>
       <c r="E6" t="n">
-        <v>257204.46</v>
+        <v>126553.3</v>
       </c>
       <c r="F6" t="n">
-        <v>253463.78</v>
+        <v>121388.06</v>
       </c>
       <c r="G6" t="n">
-        <v>263796.28</v>
+        <v>130653.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>130560.68</v>
+      </c>
+      <c r="I6" t="n">
+        <v>133565.41</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126407.18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>133876.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>127527.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>131301.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>302733.55</v>
-      </c>
-      <c r="C7" t="n">
-        <v>302285.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>302281.58</v>
-      </c>
-      <c r="E7" t="n">
-        <v>299961.16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>300582.43</v>
-      </c>
-      <c r="G7" t="n">
-        <v>295505.63</v>
-      </c>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>41569.59</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4399.22</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
+          <t>FBA Calificado</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>35990.42</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4156.95</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109979.57</v>
-      </c>
-      <c r="C9" t="n">
-        <v>110457.88</v>
-      </c>
+        <v>256290.21</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>111253.09</v>
+        <v>256763.52</v>
       </c>
       <c r="E9" t="n">
-        <v>108696.12</v>
+        <v>251890.73</v>
       </c>
       <c r="F9" t="n">
-        <v>107410.76</v>
+        <v>253715.8</v>
       </c>
       <c r="G9" t="n">
-        <v>109599.05</v>
+        <v>257714.89</v>
+      </c>
+      <c r="H9" t="n">
+        <v>252578.27</v>
+      </c>
+      <c r="I9" t="n">
+        <v>253109.05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>252769.54</v>
+      </c>
+      <c r="K9" t="n">
+        <v>256755.68</v>
+      </c>
+      <c r="L9" t="n">
+        <v>255418.93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>254477.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>242567.64</v>
+        <v>301155.97</v>
       </c>
       <c r="C10" t="n">
-        <v>242334.18</v>
+        <v>303089.32</v>
       </c>
       <c r="D10" t="n">
-        <v>242750</v>
+        <v>303045.01</v>
       </c>
       <c r="E10" t="n">
-        <v>232758.99</v>
+        <v>302876.54</v>
       </c>
       <c r="F10" t="n">
-        <v>232930.77</v>
+        <v>303770.63</v>
       </c>
       <c r="G10" t="n">
-        <v>235278.05</v>
+        <v>302644.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>300271.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>303019.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>301271.93</v>
+      </c>
+      <c r="K10" t="n">
+        <v>299881.72</v>
+      </c>
+      <c r="L10" t="n">
+        <v>303971.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>302733.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9540.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>HF Acciones Lideres</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>138994.33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>139293</v>
+      </c>
+      <c r="D12" t="n">
+        <v>109499.09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>109205.58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>107734.36</v>
+      </c>
+      <c r="G12" t="n">
+        <v>108851.53</v>
+      </c>
+      <c r="H12" t="n">
+        <v>109957.97</v>
+      </c>
+      <c r="I12" t="n">
+        <v>110470.04</v>
+      </c>
+      <c r="J12" t="n">
+        <v>110292.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>109125.11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>110053.26</v>
+      </c>
+      <c r="M12" t="n">
+        <v>109979.57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>226074.09</v>
+      </c>
+      <c r="C13" t="n">
+        <v>219923.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>225332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>224739.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>224052.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>225701.74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>224445.79</v>
+      </c>
+      <c r="I13" t="n">
+        <v>218110.91</v>
+      </c>
+      <c r="J13" t="n">
+        <v>216855.14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>185793.28</v>
+      </c>
+      <c r="L13" t="n">
+        <v>179035.19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>242567.64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
+        <v>2034666.84</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1759386.38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2027988.02</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2022656.65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2016475.94</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2031315.62</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2020012.08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1962998.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1951696.28</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2043726.03</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1969387.12</v>
+      </c>
+      <c r="M14" t="n">
         <v>1940541.16</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1938673.43</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1942000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1862071.95</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1863446.19</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1882224.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,578 +436,983 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27202.22</v>
+        <v>370968.54</v>
       </c>
       <c r="C2" t="n">
-        <v>26329.59</v>
+        <v>368117.1</v>
       </c>
       <c r="D2" t="n">
-        <v>28279.66</v>
+        <v>371490.69</v>
       </c>
       <c r="E2" t="n">
-        <v>29223.95</v>
+        <v>369482.07</v>
       </c>
       <c r="F2" t="n">
-        <v>26168.58</v>
+        <v>369214.36</v>
       </c>
       <c r="G2" t="n">
-        <v>24252.49</v>
+        <v>374524.85</v>
       </c>
       <c r="H2" t="n">
-        <v>23718.8</v>
+        <v>371149.78</v>
       </c>
       <c r="I2" t="n">
-        <v>24325.79</v>
+        <v>369737.76</v>
       </c>
       <c r="J2" t="n">
-        <v>23201.26</v>
+        <v>370408.32</v>
       </c>
       <c r="K2" t="n">
-        <v>23786.43</v>
+        <v>370822.8</v>
       </c>
       <c r="L2" t="n">
-        <v>24930.28</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>370911.77</v>
+      </c>
+      <c r="M2" t="n">
+        <v>367847.99</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369252.48</v>
+      </c>
+      <c r="O2" t="n">
+        <v>370520.92</v>
+      </c>
+      <c r="P2" t="n">
+        <v>370638.13</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>370175.52</v>
+      </c>
+      <c r="R2" t="n">
+        <v>370812.52</v>
+      </c>
+      <c r="S2" t="n">
+        <v>369943.63</v>
+      </c>
+      <c r="T2" t="n">
+        <v>367786.87</v>
+      </c>
+      <c r="U2" t="n">
+        <v>367762.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>370779.37</v>
+      </c>
+      <c r="W2" t="n">
+        <v>369971.77</v>
+      </c>
+      <c r="X2" t="n">
+        <v>369819.17</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>369344.39</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>370066.97</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>369413.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370309.86</v>
+        <v>473036.16</v>
       </c>
       <c r="C3" t="n">
-        <v>368466.44</v>
+        <v>472706.8</v>
       </c>
       <c r="D3" t="n">
-        <v>369500.23</v>
+        <v>472780.74</v>
       </c>
       <c r="E3" t="n">
-        <v>368557.64</v>
+        <v>401174.29</v>
       </c>
       <c r="F3" t="n">
-        <v>370370.7</v>
+        <v>403062.04</v>
       </c>
       <c r="G3" t="n">
-        <v>369548.28</v>
+        <v>405939.57</v>
       </c>
       <c r="H3" t="n">
-        <v>369407.06</v>
+        <v>401174.48</v>
       </c>
       <c r="I3" t="n">
-        <v>369091.94</v>
+        <v>370105.92</v>
       </c>
       <c r="J3" t="n">
-        <v>368922.48</v>
+        <v>373335.16</v>
       </c>
       <c r="K3" t="n">
-        <v>369565</v>
+        <v>372392.09</v>
       </c>
       <c r="L3" t="n">
-        <v>368506.94</v>
+        <v>372540.82</v>
       </c>
       <c r="M3" t="n">
-        <v>370968.54</v>
+        <v>369490.85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>269378.76</v>
+      </c>
+      <c r="O3" t="n">
+        <v>273046.97</v>
+      </c>
+      <c r="P3" t="n">
+        <v>274135.44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>271273.78</v>
+      </c>
+      <c r="R3" t="n">
+        <v>271486.81</v>
+      </c>
+      <c r="S3" t="n">
+        <v>272326.76</v>
+      </c>
+      <c r="T3" t="n">
+        <v>272125.34</v>
+      </c>
+      <c r="U3" t="n">
+        <v>274040.31</v>
+      </c>
+      <c r="V3" t="n">
+        <v>273448.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>270290.41</v>
+      </c>
+      <c r="X3" t="n">
+        <v>271526</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>270838.88</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>271067.19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>273172.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538018.11</v>
+        <v>298043.72</v>
       </c>
       <c r="C4" t="n">
-        <v>534458.55</v>
+        <v>297207.08</v>
       </c>
       <c r="D4" t="n">
-        <v>538751.42</v>
+        <v>297671.83</v>
       </c>
       <c r="E4" t="n">
-        <v>535852.67</v>
+        <v>296975.27</v>
       </c>
       <c r="F4" t="n">
-        <v>535984.59</v>
+        <v>299060.16</v>
       </c>
       <c r="G4" t="n">
-        <v>539290.85</v>
+        <v>301823.8</v>
       </c>
       <c r="H4" t="n">
-        <v>536324.6800000001</v>
+        <v>298706.58</v>
       </c>
       <c r="I4" t="n">
-        <v>471855.81</v>
+        <v>298799.38</v>
       </c>
       <c r="J4" t="n">
-        <v>471544.41</v>
+        <v>299150.16</v>
       </c>
       <c r="K4" t="n">
-        <v>475204.43</v>
+        <v>298114.97</v>
       </c>
       <c r="L4" t="n">
-        <v>473025.88</v>
+        <v>299139.38</v>
       </c>
       <c r="M4" t="n">
-        <v>473036.16</v>
+        <v>299246.76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>298296.09</v>
+      </c>
+      <c r="O4" t="n">
+        <v>297479.23</v>
+      </c>
+      <c r="P4" t="n">
+        <v>298470.34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>298431</v>
+      </c>
+      <c r="R4" t="n">
+        <v>297571.23</v>
+      </c>
+      <c r="S4" t="n">
+        <v>297378.63</v>
+      </c>
+      <c r="T4" t="n">
+        <v>296631.92</v>
+      </c>
+      <c r="U4" t="n">
+        <v>297252.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>297503.46</v>
+      </c>
+      <c r="W4" t="n">
+        <v>297366.01</v>
+      </c>
+      <c r="X4" t="n">
+        <v>298202.92</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>297880.63</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>298106.24</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>298081.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268255.2</v>
+        <v>131301.8</v>
       </c>
       <c r="C5" t="n">
-        <v>269384.72</v>
+        <v>129542.25</v>
       </c>
       <c r="D5" t="n">
-        <v>298438.25</v>
+        <v>127941.93</v>
       </c>
       <c r="E5" t="n">
-        <v>298496.24</v>
+        <v>128578.58</v>
       </c>
       <c r="F5" t="n">
-        <v>297343.22</v>
+        <v>130652.66</v>
       </c>
       <c r="G5" t="n">
-        <v>298359.15</v>
+        <v>131035.23</v>
       </c>
       <c r="H5" t="n">
-        <v>297192.72</v>
+        <v>132417.71</v>
       </c>
       <c r="I5" t="n">
-        <v>297560.28</v>
+        <v>131177.98</v>
       </c>
       <c r="J5" t="n">
-        <v>297287.13</v>
+        <v>121610.87</v>
       </c>
       <c r="K5" t="n">
-        <v>297970.9</v>
+        <v>131533.6</v>
       </c>
       <c r="L5" t="n">
-        <v>297396.6</v>
+        <v>119934.6</v>
       </c>
       <c r="M5" t="n">
-        <v>298043.72</v>
+        <v>121989.61</v>
+      </c>
+      <c r="N5" t="n">
+        <v>122586.79</v>
+      </c>
+      <c r="O5" t="n">
+        <v>125199</v>
+      </c>
+      <c r="P5" t="n">
+        <v>125500.57</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>126319.31</v>
+      </c>
+      <c r="R5" t="n">
+        <v>131538.34</v>
+      </c>
+      <c r="S5" t="n">
+        <v>123015.74</v>
+      </c>
+      <c r="T5" t="n">
+        <v>128117.55</v>
+      </c>
+      <c r="U5" t="n">
+        <v>128729.25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>128016.39</v>
+      </c>
+      <c r="W5" t="n">
+        <v>124136.33</v>
+      </c>
+      <c r="X5" t="n">
+        <v>125154.25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>130584.61</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>125408.96</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>120929.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124900.04</v>
+        <v>254477.82</v>
       </c>
       <c r="C6" t="n">
-        <v>118364.76</v>
+        <v>258357.17</v>
       </c>
       <c r="D6" t="n">
-        <v>123710.84</v>
+        <v>258580.14</v>
       </c>
       <c r="E6" t="n">
-        <v>126553.3</v>
+        <v>257204.46</v>
       </c>
       <c r="F6" t="n">
-        <v>121388.06</v>
+        <v>253463.78</v>
       </c>
       <c r="G6" t="n">
-        <v>130653.7</v>
+        <v>263796.28</v>
       </c>
       <c r="H6" t="n">
-        <v>130560.68</v>
+        <v>268249.22</v>
       </c>
       <c r="I6" t="n">
-        <v>133565.41</v>
+        <v>265470.21</v>
       </c>
       <c r="J6" t="n">
-        <v>126407.18</v>
+        <v>266007.78</v>
       </c>
       <c r="K6" t="n">
-        <v>133876.75</v>
+        <v>264897.74</v>
       </c>
       <c r="L6" t="n">
-        <v>127527.26</v>
+        <v>261383.86</v>
       </c>
       <c r="M6" t="n">
-        <v>131301.8</v>
+        <v>260786.61</v>
+      </c>
+      <c r="N6" t="n">
+        <v>266905.64</v>
+      </c>
+      <c r="O6" t="n">
+        <v>267678.96</v>
+      </c>
+      <c r="P6" t="n">
+        <v>267525.86</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>266738.87</v>
+      </c>
+      <c r="R6" t="n">
+        <v>262866.23</v>
+      </c>
+      <c r="S6" t="n">
+        <v>269820.55</v>
+      </c>
+      <c r="T6" t="n">
+        <v>267296.27</v>
+      </c>
+      <c r="U6" t="n">
+        <v>261442.72</v>
+      </c>
+      <c r="V6" t="n">
+        <v>262438.24</v>
+      </c>
+      <c r="W6" t="n">
+        <v>266877.56</v>
+      </c>
+      <c r="X6" t="n">
+        <v>267237.88</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>269843.7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>270834.74</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>267992.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>Fima PB Acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>302733.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>302285.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>302281.58</v>
+      </c>
+      <c r="E7" t="n">
+        <v>299961.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>300582.43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>295505.63</v>
+      </c>
+      <c r="H7" t="n">
+        <v>294819.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>294481.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>296004.14</v>
+      </c>
       <c r="K7" t="n">
-        <v>41569.59</v>
+        <v>295412.48</v>
       </c>
       <c r="L7" t="n">
-        <v>4399.22</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>293351.85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>295601.66</v>
+      </c>
+      <c r="N7" t="n">
+        <v>293863.48</v>
+      </c>
+      <c r="O7" t="n">
+        <v>294722.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>293689.62</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>302993.9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>302843.06</v>
+      </c>
+      <c r="S7" t="n">
+        <v>303123.81</v>
+      </c>
+      <c r="T7" t="n">
+        <v>301044.45</v>
+      </c>
+      <c r="U7" t="n">
+        <v>298630.92</v>
+      </c>
+      <c r="V7" t="n">
+        <v>300444.12</v>
+      </c>
+      <c r="W7" t="n">
+        <v>299405.67</v>
+      </c>
+      <c r="X7" t="n">
+        <v>302578.21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>301446.72</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>304105.84</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>304965.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="n">
-        <v>35990.42</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4156.95</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256290.21</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>109979.57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>110457.88</v>
+      </c>
       <c r="D9" t="n">
-        <v>256763.52</v>
+        <v>111253.09</v>
       </c>
       <c r="E9" t="n">
-        <v>251890.73</v>
+        <v>108696.12</v>
       </c>
       <c r="F9" t="n">
-        <v>253715.8</v>
+        <v>107410.76</v>
       </c>
       <c r="G9" t="n">
-        <v>257714.89</v>
+        <v>109599.05</v>
       </c>
       <c r="H9" t="n">
-        <v>252578.27</v>
+        <v>107407.33</v>
       </c>
       <c r="I9" t="n">
-        <v>253109.05</v>
+        <v>107747.14</v>
       </c>
       <c r="J9" t="n">
-        <v>252769.54</v>
+        <v>108544.08</v>
       </c>
       <c r="K9" t="n">
-        <v>256755.68</v>
+        <v>111137.63</v>
       </c>
       <c r="L9" t="n">
-        <v>255418.93</v>
+        <v>111312.52</v>
       </c>
       <c r="M9" t="n">
-        <v>254477.82</v>
+        <v>109269.98</v>
+      </c>
+      <c r="N9" t="n">
+        <v>109470.22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>109676.71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>111018.23</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>108380.24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>108742.53</v>
+      </c>
+      <c r="S9" t="n">
+        <v>109939.84</v>
+      </c>
+      <c r="T9" t="n">
+        <v>110114.83</v>
+      </c>
+      <c r="U9" t="n">
+        <v>110467.98</v>
+      </c>
+      <c r="V9" t="n">
+        <v>110448.05</v>
+      </c>
+      <c r="W9" t="n">
+        <v>109308.55</v>
+      </c>
+      <c r="X9" t="n">
+        <v>107780.41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>108677.92</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>107901.57</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>110285.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301155.97</v>
+        <v>242567.64</v>
       </c>
       <c r="C10" t="n">
-        <v>303089.32</v>
+        <v>242334.18</v>
       </c>
       <c r="D10" t="n">
-        <v>303045.01</v>
+        <v>242750</v>
       </c>
       <c r="E10" t="n">
-        <v>302876.54</v>
+        <v>232758.99</v>
       </c>
       <c r="F10" t="n">
-        <v>303770.63</v>
+        <v>232930.77</v>
       </c>
       <c r="G10" t="n">
-        <v>302644.73</v>
+        <v>235278.05</v>
       </c>
       <c r="H10" t="n">
-        <v>300271.9</v>
+        <v>234240.58</v>
       </c>
       <c r="I10" t="n">
-        <v>303019.88</v>
+        <v>229690.03</v>
       </c>
       <c r="J10" t="n">
-        <v>301271.93</v>
+        <v>229382.56</v>
       </c>
       <c r="K10" t="n">
-        <v>299881.72</v>
+        <v>230538.91</v>
       </c>
       <c r="L10" t="n">
-        <v>303971.8</v>
+        <v>228571.85</v>
       </c>
       <c r="M10" t="n">
-        <v>302733.55</v>
+        <v>228029.18</v>
+      </c>
+      <c r="N10" t="n">
+        <v>216219.18</v>
+      </c>
+      <c r="O10" t="n">
+        <v>217290.52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>217622.27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>218039.08</v>
+      </c>
+      <c r="R10" t="n">
+        <v>218232.59</v>
+      </c>
+      <c r="S10" t="n">
+        <v>218193.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>217889.65</v>
+      </c>
+      <c r="U10" t="n">
+        <v>217290.7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>217884.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>217169.54</v>
+      </c>
+      <c r="X10" t="n">
+        <v>217787.36</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>218577.11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>218436.44</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>218105.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9540.9</v>
+        <v>1940541.16</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1938673.43</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1942000</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1862071.95</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1863446.19</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1882224.41</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1873924.6</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1837520.27</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1835060.51</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1844311.31</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1828574.8</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>HF Acciones Lideres</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>138994.33</v>
-      </c>
-      <c r="C12" t="n">
-        <v>139293</v>
-      </c>
-      <c r="D12" t="n">
-        <v>109499.09</v>
-      </c>
-      <c r="E12" t="n">
-        <v>109205.58</v>
-      </c>
-      <c r="F12" t="n">
-        <v>107734.36</v>
-      </c>
-      <c r="G12" t="n">
-        <v>108851.53</v>
-      </c>
-      <c r="H12" t="n">
-        <v>109957.97</v>
-      </c>
-      <c r="I12" t="n">
-        <v>110470.04</v>
-      </c>
-      <c r="J12" t="n">
-        <v>110292.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>109125.11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>110053.26</v>
-      </c>
-      <c r="M12" t="n">
-        <v>109979.57</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>226074.09</v>
-      </c>
-      <c r="C13" t="n">
-        <v>219923.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>225332</v>
-      </c>
-      <c r="E13" t="n">
-        <v>224739.63</v>
-      </c>
-      <c r="F13" t="n">
-        <v>224052.88</v>
-      </c>
-      <c r="G13" t="n">
-        <v>225701.74</v>
-      </c>
-      <c r="H13" t="n">
-        <v>224445.79</v>
-      </c>
-      <c r="I13" t="n">
-        <v>218110.91</v>
-      </c>
-      <c r="J13" t="n">
-        <v>216855.14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>185793.28</v>
-      </c>
-      <c r="L13" t="n">
-        <v>179035.19</v>
-      </c>
-      <c r="M13" t="n">
-        <v>242567.64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2034666.84</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1759386.38</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2027988.02</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2022656.65</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2016475.94</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2031315.62</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2020012.08</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1962998.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1951696.28</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2043726.03</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1969387.12</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1940541.16</v>
+        <v>1824233.46</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1729753.46</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1738324.13</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1740978.19</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1744312.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1745860.72</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1745548.96</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1743117.23</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1738325.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1743078.38</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1737356.3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1742298.84</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1748616.85</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1747491.51</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1744840.85</v>
       </c>
     </row>
   </sheetData>
